--- a/data/trans_orig/P51_1-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P51_1-Edad-trans_orig.xlsx
@@ -742,19 +742,19 @@
         <v>4899</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>988</v>
+        <v>978</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>12059</v>
+        <v>12206</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02967675874172035</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.005986740216491662</v>
+        <v>0.005924316984694271</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.0730514102488579</v>
+        <v>0.07394482392780397</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>6</v>
@@ -763,19 +763,19 @@
         <v>5833</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>1959</v>
+        <v>1950</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11767</v>
+        <v>11727</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.06184994010494008</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.02077081917254977</v>
+        <v>0.02067787133032938</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1247718425910646</v>
+        <v>0.124348512142847</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>10</v>
@@ -784,19 +784,19 @@
         <v>10732</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>5693</v>
+        <v>5762</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>19452</v>
+        <v>19036</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.04137458656996625</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02194708485868772</v>
+        <v>0.02221653717762425</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07499529499010955</v>
+        <v>0.07339083915242836</v>
       </c>
     </row>
     <row r="5">
@@ -813,19 +813,19 @@
         <v>4598</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1736</v>
+        <v>1660</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>10447</v>
+        <v>10158</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02785450609869201</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01051746760988827</v>
+        <v>0.01005894913039861</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.06328935822978896</v>
+        <v>0.06153535220067092</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>2</v>
@@ -837,7 +837,7 @@
         <v>0</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>5950</v>
+        <v>6790</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02051945709099217</v>
@@ -846,7 +846,7 @@
         <v>0</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.06309439092699264</v>
+        <v>0.07199779528191361</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>7</v>
@@ -855,19 +855,19 @@
         <v>6533</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>2800</v>
+        <v>2879</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>12848</v>
+        <v>12988</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02518756000358468</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01079434439290322</v>
+        <v>0.01109933166119915</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.04953341178370432</v>
+        <v>0.05007484249030207</v>
       </c>
     </row>
     <row r="6">
@@ -884,19 +884,19 @@
         <v>14651</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>8690</v>
+        <v>8657</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>23586</v>
+        <v>22936</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.08875417787767353</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.05264281081737826</v>
+        <v>0.05244255202831508</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1428826032045827</v>
+        <v>0.1389443969984293</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>8</v>
@@ -905,19 +905,19 @@
         <v>7830</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>3796</v>
+        <v>3033</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>14379</v>
+        <v>13023</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.08302273618946755</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.04025481926015428</v>
+        <v>0.03216578568053652</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1524744832828271</v>
+        <v>0.13809681945694</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>23</v>
@@ -926,19 +926,19 @@
         <v>22480</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>15059</v>
+        <v>14804</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>32245</v>
+        <v>31901</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.08667028641169279</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.05805824608436138</v>
+        <v>0.0570759138044484</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.124315117294609</v>
+        <v>0.1229920776514491</v>
       </c>
     </row>
     <row r="7">
@@ -955,19 +955,19 @@
         <v>140924</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>131064</v>
+        <v>130909</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>148833</v>
+        <v>149328</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.8537145572819141</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.7939828704264061</v>
+        <v>0.7930487620256403</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.901632648412553</v>
+        <v>0.9046286533877756</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>79</v>
@@ -976,19 +976,19 @@
         <v>78709</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>71071</v>
+        <v>70792</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>85293</v>
+        <v>85527</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.8346078666146002</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.7536100604633338</v>
+        <v>0.7506586691807283</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9044183311250715</v>
+        <v>0.9069042557561968</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>219</v>
@@ -997,19 +997,19 @@
         <v>219633</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>205694</v>
+        <v>206531</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>230146</v>
+        <v>229602</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.8467675670147563</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.7930269239679992</v>
+        <v>0.7962551212786249</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.8872997079783913</v>
+        <v>0.8852039946215282</v>
       </c>
     </row>
     <row r="8">
@@ -1101,19 +1101,19 @@
         <v>5859</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1927</v>
+        <v>2009</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>11889</v>
+        <v>11688</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.03052677637898574</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01004083250001747</v>
+        <v>0.01046851073620515</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.06194162794670885</v>
+        <v>0.06089412476150278</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>2</v>
@@ -1125,7 +1125,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>12918</v>
+        <v>11514</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.03977621831871628</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.1346850323385814</v>
+        <v>0.1200488949212433</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>8</v>
@@ -1143,19 +1143,19 @@
         <v>9674</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>3943</v>
+        <v>4558</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>19233</v>
+        <v>19121</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.03360879592761925</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01369805258219608</v>
+        <v>0.0158354195166477</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.06681638933982013</v>
+        <v>0.06642564422661028</v>
       </c>
     </row>
     <row r="10">
@@ -1172,19 +1172,19 @@
         <v>5528</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>2005</v>
+        <v>1874</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>13251</v>
+        <v>11678</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02880063475079496</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01044862934395258</v>
+        <v>0.009765702778137262</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.06903639815032682</v>
+        <v>0.06084483599387589</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>0</v>
@@ -1206,19 +1206,19 @@
         <v>5528</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1997</v>
+        <v>1928</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14593</v>
+        <v>12619</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01920393476679686</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006937980033364537</v>
+        <v>0.006697437004291077</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.05069620669510589</v>
+        <v>0.04383988928024779</v>
       </c>
     </row>
     <row r="11">
@@ -1235,19 +1235,19 @@
         <v>2765</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>865</v>
+        <v>878</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>7480</v>
+        <v>7165</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01440719328521057</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.004508133021499733</v>
+        <v>0.004572991527290065</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.03896994616054032</v>
+        <v>0.03733116727896523</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>10627</v>
+        <v>10688</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03024850225536415</v>
@@ -1268,7 +1268,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1107934233130775</v>
+        <v>0.1114268479673712</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>5</v>
@@ -1277,19 +1277,19 @@
         <v>5667</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1861</v>
+        <v>1934</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>12955</v>
+        <v>13950</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01968569811178165</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.006465521822595744</v>
+        <v>0.006719100984039177</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0450057518729417</v>
+        <v>0.04846190087440114</v>
       </c>
     </row>
     <row r="12">
@@ -1306,19 +1306,19 @@
         <v>177784</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>168948</v>
+        <v>168841</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>184096</v>
+        <v>183320</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9262653955850088</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8802295520119813</v>
+        <v>0.8796728570294171</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.9591506194494878</v>
+        <v>0.9551099150093894</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>84</v>
@@ -1327,19 +1327,19 @@
         <v>89199</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>79125</v>
+        <v>80207</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>94018</v>
+        <v>94027</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9299752794259195</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.8249441923968985</v>
+        <v>0.8362293006142875</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.9802181234385656</v>
+        <v>0.9803186566782767</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>257</v>
@@ -1348,19 +1348,19 @@
         <v>266982</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>255037</v>
+        <v>255453</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>274626</v>
+        <v>275759</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9275015711938023</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.88600380868151</v>
+        <v>0.8874472439908924</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9540556112157602</v>
+        <v>0.95799362634897</v>
       </c>
     </row>
     <row r="13">
@@ -1452,19 +1452,19 @@
         <v>4928</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1868</v>
+        <v>1908</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>10873</v>
+        <v>10360</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02857451880682985</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01083505108386535</v>
+        <v>0.01106205914540045</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06305125746004968</v>
+        <v>0.06007374388737</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>3</v>
@@ -1473,19 +1473,19 @@
         <v>2983</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>947</v>
+        <v>959</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>8075</v>
+        <v>8061</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.04260726788410115</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01352413169094493</v>
+        <v>0.01370662284292369</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1153535925154035</v>
+        <v>0.1151499029584385</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>8</v>
@@ -1494,19 +1494,19 @@
         <v>7910</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>3923</v>
+        <v>3871</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>15356</v>
+        <v>14839</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03262610333068042</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0161820860518954</v>
+        <v>0.01596588744135772</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.06333680717474469</v>
+        <v>0.06120333924045981</v>
       </c>
     </row>
     <row r="15">
@@ -1526,7 +1526,7 @@
         <v>0</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>4111</v>
+        <v>4822</v>
       </c>
       <c r="G15" s="6" t="n">
         <v>0.004926268737724124</v>
@@ -1535,7 +1535,7 @@
         <v>0</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.02383965636899809</v>
+        <v>0.02796399548423114</v>
       </c>
       <c r="J15" s="5" t="n">
         <v>1</v>
@@ -1547,7 +1547,7 @@
         <v>0</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>6145</v>
+        <v>6441</v>
       </c>
       <c r="N15" s="6" t="n">
         <v>0.01707703317895025</v>
@@ -1556,7 +1556,7 @@
         <v>0</v>
       </c>
       <c r="P15" s="6" t="n">
-        <v>0.08778340962585561</v>
+        <v>0.09201706260953219</v>
       </c>
       <c r="Q15" s="5" t="n">
         <v>2</v>
@@ -1568,7 +1568,7 @@
         <v>0</v>
       </c>
       <c r="T15" s="5" t="n">
-        <v>6263</v>
+        <v>7469</v>
       </c>
       <c r="U15" s="6" t="n">
         <v>0.00843448005768299</v>
@@ -1577,7 +1577,7 @@
         <v>0</v>
       </c>
       <c r="W15" s="6" t="n">
-        <v>0.02583286328141831</v>
+        <v>0.03080839325113645</v>
       </c>
     </row>
     <row r="16">
@@ -1594,19 +1594,19 @@
         <v>3764</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>947</v>
+        <v>941</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>8726</v>
+        <v>9574</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02182760672970432</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.005490619452299102</v>
+        <v>0.005454444174830431</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.0506025790363161</v>
+        <v>0.05551996128626699</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>0</v>
@@ -1628,19 +1628,19 @@
         <v>3764</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>9356</v>
+        <v>8595</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01552546356931631</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003880863060400509</v>
+        <v>0.003892300460251813</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03859119200396869</v>
+        <v>0.03545195879342402</v>
       </c>
     </row>
     <row r="17">
@@ -1657,19 +1657,19 @@
         <v>162907</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>155509</v>
+        <v>155478</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>167698</v>
+        <v>167734</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9446716057257417</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9017761833487626</v>
+        <v>0.9015916019373118</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9724527478773657</v>
+        <v>0.9726636141696201</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>61</v>
@@ -1678,19 +1678,19 @@
         <v>65823</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>60090</v>
+        <v>60408</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>68986</v>
+        <v>68971</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9403156989369486</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8584202018556384</v>
+        <v>0.8629584900423002</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9855043102698453</v>
+        <v>0.9852823633787355</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>212</v>
@@ -1699,19 +1699,19 @@
         <v>228730</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>219235</v>
+        <v>219507</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>234179</v>
+        <v>234627</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9434139530423202</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9042533705181747</v>
+        <v>0.9053756057415672</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9658909354157103</v>
+        <v>0.9677385743847616</v>
       </c>
     </row>
     <row r="18">
@@ -1803,19 +1803,19 @@
         <v>4463</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>1124</v>
+        <v>113</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>12752</v>
+        <v>12193</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.03549269536117784</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.008937169871113341</v>
+        <v>0.00090020275183791</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1014014624128799</v>
+        <v>0.09695678668874858</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>3</v>
@@ -1824,19 +1824,19 @@
         <v>3345</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1051</v>
+        <v>1077</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>8827</v>
+        <v>8978</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08813863625088819</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.02769805742745609</v>
+        <v>0.02838986947403232</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2326085126231393</v>
+        <v>0.2365937096132142</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>6</v>
@@ -1845,19 +1845,19 @@
         <v>7808</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>3319</v>
+        <v>3184</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>17437</v>
+        <v>16022</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.04769663700224793</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.02027303438572911</v>
+        <v>0.01945059991955336</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1065131301148478</v>
+        <v>0.09786997156756283</v>
       </c>
     </row>
     <row r="20">
@@ -1924,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>7573</v>
+        <v>7568</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.01727253676494131</v>
@@ -1933,7 +1933,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.06021908869578511</v>
+        <v>0.06018164682106973</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>0</v>
@@ -1958,7 +1958,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>6772</v>
+        <v>6866</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.01326856177446335</v>
@@ -1967,7 +1967,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.04136928248696964</v>
+        <v>0.0419414955921378</v>
       </c>
     </row>
     <row r="22">
@@ -1984,19 +1984,19 @@
         <v>119122</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>111630</v>
+        <v>110635</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>123569</v>
+        <v>123517</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9472347678738808</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.8876587294121413</v>
+        <v>0.8797468305389482</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9825900475439319</v>
+        <v>0.9821808209922287</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>30</v>
@@ -2005,19 +2005,19 @@
         <v>34604</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>29122</v>
+        <v>28971</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>36898</v>
+        <v>36872</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.9118613637491118</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.7673914873768608</v>
+        <v>0.7634062903867859</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.9723019425725439</v>
+        <v>0.9716101305259677</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>138</v>
@@ -2026,19 +2026,19 @@
         <v>153727</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>144218</v>
+        <v>145310</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>159213</v>
+        <v>159287</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9390348012232888</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.8809547793086917</v>
+        <v>0.8876213232737374</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.972546520197627</v>
+        <v>0.9730013628133056</v>
       </c>
     </row>
     <row r="23">
@@ -2133,7 +2133,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6817</v>
+        <v>5464</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.02036349172404865</v>
@@ -2142,7 +2142,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1226209312542452</v>
+        <v>0.09827329644604421</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>0</v>
@@ -2167,7 +2167,7 @@
         <v>0</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>5647</v>
+        <v>5592</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.01804696370409109</v>
@@ -2176,7 +2176,7 @@
         <v>0</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.09000950892784694</v>
+        <v>0.08914328150132968</v>
       </c>
     </row>
     <row r="25">
@@ -2196,7 +2196,7 @@
         <v>0</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>3983</v>
+        <v>5998</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.01768681682209144</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.07164132344709982</v>
+        <v>0.1078902728259076</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>0</v>
@@ -2230,7 +2230,7 @@
         <v>0</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>4959</v>
+        <v>5964</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.01567478434222725</v>
@@ -2239,7 +2239,7 @@
         <v>0</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07905297789844884</v>
+        <v>0.09507193498718093</v>
       </c>
     </row>
     <row r="26">
@@ -2259,7 +2259,7 @@
         <v>0</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>5352</v>
+        <v>5407</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.01952462754524215</v>
@@ -2268,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.09626135434060724</v>
+        <v>0.09724622051242823</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>0</v>
@@ -2293,7 +2293,7 @@
         <v>0</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>6296</v>
+        <v>5631</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.01730352777508955</v>
@@ -2302,7 +2302,7 @@
         <v>0</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1003642611833397</v>
+        <v>0.08976128740443136</v>
       </c>
     </row>
     <row r="27">
@@ -2319,19 +2319,19 @@
         <v>52396</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>47074</v>
+        <v>47079</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>54613</v>
+        <v>54612</v>
       </c>
       <c r="G27" s="6" t="n">
         <v>0.9424250639086178</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.8467035187295504</v>
+        <v>0.8467944475014729</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.9822990314933402</v>
+        <v>0.9822831796001444</v>
       </c>
       <c r="J27" s="5" t="n">
         <v>7</v>
@@ -2353,19 +2353,19 @@
         <v>59532</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>53255</v>
+        <v>54471</v>
       </c>
       <c r="T27" s="5" t="n">
-        <v>61748</v>
+        <v>61756</v>
       </c>
       <c r="U27" s="6" t="n">
         <v>0.9489747241785921</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.8489195181057457</v>
+        <v>0.8683013270684126</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9843007981132325</v>
+        <v>0.9844185432420283</v>
       </c>
     </row>
     <row r="28">
@@ -2733,7 +2733,7 @@
         <v>3335</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>935</v>
+        <v>1063</v>
       </c>
       <c r="M34" s="5" t="n">
         <v>5435</v>
@@ -2742,7 +2742,7 @@
         <v>0.613554997057434</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.1719472024111307</v>
+        <v>0.1955575001486703</v>
       </c>
       <c r="P34" s="6" t="n">
         <v>1</v>
@@ -2754,19 +2754,19 @@
         <v>3335</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>1050</v>
+        <v>1082</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>6552</v>
+        <v>6602</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.3898676110787657</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.1227111826726329</v>
+        <v>0.1265216152448297</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.7659487896239778</v>
+        <v>0.7718212930062376</v>
       </c>
     </row>
     <row r="35">
@@ -2893,7 +2893,7 @@
         <v>0</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>4500</v>
+        <v>4372</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.386445002942566</v>
@@ -2902,7 +2902,7 @@
         <v>0</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.8280527975888625</v>
+        <v>0.8044424998513297</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>5</v>
@@ -2911,19 +2911,19 @@
         <v>5219</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>2002</v>
+        <v>1952</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>7504</v>
+        <v>7472</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.6101323889212343</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.2340512103760221</v>
+        <v>0.2281787069937624</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.8772888173273671</v>
+        <v>0.8734783847551703</v>
       </c>
     </row>
     <row r="38">
@@ -3015,19 +3015,19 @@
         <v>21281</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>13195</v>
+        <v>13215</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>33621</v>
+        <v>33101</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.02918150302859183</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.01809302238788786</v>
+        <v>0.01812107128680595</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.04610243265859221</v>
+        <v>0.04538930960096984</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>17</v>
@@ -3036,19 +3036,19 @@
         <v>19310</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>11159</v>
+        <v>11285</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>29709</v>
+        <v>30877</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.0619472373951571</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.03579953240341792</v>
+        <v>0.03620186201060324</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.09530540852171843</v>
+        <v>0.0990541852826826</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>36</v>
@@ -3057,19 +3057,19 @@
         <v>40591</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>28201</v>
+        <v>28820</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>56206</v>
+        <v>55479</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.03899306463247249</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.02709016983216426</v>
+        <v>0.02768548266008598</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.05399237988360804</v>
+        <v>0.05329466050588699</v>
       </c>
     </row>
     <row r="40">
@@ -3086,19 +3086,19 @@
         <v>11959</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>6560</v>
+        <v>5780</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>20514</v>
+        <v>19898</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01639816732310553</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.008994932324113091</v>
+        <v>0.007925119099332753</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.02812982060391489</v>
+        <v>0.02728509563628007</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>3</v>
@@ -3107,19 +3107,19 @@
         <v>3131</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>928</v>
+        <v>930</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>9248</v>
+        <v>9298</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01004277032928511</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.002975582385292508</v>
+        <v>0.002983110452557557</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.02966777836024976</v>
+        <v>0.029826526969922</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>15</v>
@@ -3128,19 +3128,19 @@
         <v>15089</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>8791</v>
+        <v>8435</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>25497</v>
+        <v>24456</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01449507037357961</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.008445108748333119</v>
+        <v>0.0081026454814116</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.02449259211718258</v>
+        <v>0.02349289435772106</v>
       </c>
     </row>
     <row r="41">
@@ -3157,19 +3157,19 @@
         <v>24438</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>16602</v>
+        <v>16528</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>35028</v>
+        <v>34549</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.03350991686874603</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.02276557412915657</v>
+        <v>0.02266383365650332</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.04803105158758734</v>
+        <v>0.04737534006327996</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>10</v>
@@ -3178,19 +3178,19 @@
         <v>10731</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>5549</v>
+        <v>5468</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>19658</v>
+        <v>18718</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.03442487371222169</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.01779972935605053</v>
+        <v>0.01754161924211674</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.0630628138134694</v>
+        <v>0.06004872554053629</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>35</v>
@@ -3199,19 +3199,19 @@
         <v>35169</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>24300</v>
+        <v>23938</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>47301</v>
+        <v>48121</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.03378389685449035</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.02334343543837199</v>
+        <v>0.02299542311730204</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.04543883343066785</v>
+        <v>0.04622597482618915</v>
       </c>
     </row>
     <row r="42">
@@ -3228,19 +3228,19 @@
         <v>671592</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>654695</v>
+        <v>655370</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>685754</v>
+        <v>684880</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.9209104127795567</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.8977396197216582</v>
+        <v>0.8986657464052467</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.9403298793813527</v>
+        <v>0.939130929013713</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>264</v>
@@ -3249,19 +3249,19 @@
         <v>278548</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>266816</v>
+        <v>264251</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>289122</v>
+        <v>288397</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.8935851185633361</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.8559486581329642</v>
+        <v>0.8477178544754167</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.9275047576803087</v>
+        <v>0.9251786659748352</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>903</v>
@@ -3270,19 +3270,19 @@
         <v>950141</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>930460</v>
+        <v>930675</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>968861</v>
+        <v>967634</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.9127279681394576</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.8938223738379686</v>
+        <v>0.8940290764230998</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.9307110671109766</v>
+        <v>0.9295328485108937</v>
       </c>
     </row>
     <row r="43">
@@ -3620,7 +3620,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>5962</v>
+        <v>5924</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01343840248669112</v>
@@ -3629,7 +3629,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04139308487688297</v>
+        <v>0.04112410583091728</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>3</v>
@@ -3638,19 +3638,19 @@
         <v>3396</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>898</v>
+        <v>891</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>11067</v>
+        <v>9544</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.03774775211034317</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.009977216779800083</v>
+        <v>0.009903855130725746</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.123022436111839</v>
+        <v>0.1060925533493079</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>5</v>
@@ -3659,19 +3659,19 @@
         <v>5331</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1849</v>
+        <v>1827</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>12314</v>
+        <v>12750</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02278380100594002</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.007903701722085361</v>
+        <v>0.007806400271170128</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.05262605759235065</v>
+        <v>0.05448638576710726</v>
       </c>
     </row>
     <row r="5">
@@ -3691,7 +3691,7 @@
         <v>0</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7639</v>
+        <v>6382</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.01473069328266581</v>
@@ -3700,7 +3700,7 @@
         <v>0</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05302968676845986</v>
+        <v>0.0443067563963778</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>0</v>
@@ -3725,7 +3725,7 @@
         <v>0</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>7408</v>
+        <v>7221</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.009067678791426897</v>
@@ -3734,7 +3734,7 @@
         <v>0</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03165738181353784</v>
+        <v>0.03085965806777582</v>
       </c>
     </row>
     <row r="6">
@@ -3751,19 +3751,19 @@
         <v>4183</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>1058</v>
+        <v>1122</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>9814</v>
+        <v>10755</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.02904261868756955</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.007341949591305802</v>
+        <v>0.007787889371155295</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.06813522818297803</v>
+        <v>0.07466274002387731</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>3</v>
@@ -3772,19 +3772,19 @@
         <v>2948</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>958</v>
+        <v>927</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>8048</v>
+        <v>8004</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.03276822814046564</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.01065048266256843</v>
+        <v>0.01030688002012325</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.0894622759677013</v>
+        <v>0.08896992024618088</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>7</v>
@@ -3793,19 +3793,19 @@
         <v>7131</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>3044</v>
+        <v>3067</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>13845</v>
+        <v>14417</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.03047487852188939</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.01300655049056136</v>
+        <v>0.01310732409328345</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.0591650634133066</v>
+        <v>0.06160932241505736</v>
       </c>
     </row>
     <row r="7">
@@ -3822,19 +3822,19 @@
         <v>135801</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>128618</v>
+        <v>128401</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>140139</v>
+        <v>139937</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.9427882855430735</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.8929188224538911</v>
+        <v>0.8914130569330574</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.9729068947407733</v>
+        <v>0.9714994161877852</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>85</v>
@@ -3843,19 +3843,19 @@
         <v>83615</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>76776</v>
+        <v>76936</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>87205</v>
+        <v>87223</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.9294840197491911</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.8534617714606545</v>
+        <v>0.8552472839015282</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.9693957357480261</v>
+        <v>0.9695980375806571</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>209</v>
@@ -3864,19 +3864,19 @@
         <v>219416</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>210984</v>
+        <v>211014</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>226038</v>
+        <v>226137</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.9376736416807437</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.9016423253040357</v>
+        <v>0.9017681505293935</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.9659734343743511</v>
+        <v>0.9663965467508296</v>
       </c>
     </row>
     <row r="8">
@@ -3968,19 +3968,19 @@
         <v>7574</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>2939</v>
+        <v>2942</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>15085</v>
+        <v>15485</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.04148215815359782</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.01609954456996774</v>
+        <v>0.0161125307372754</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.08262111711314796</v>
+        <v>0.08481263114967623</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>1</v>
@@ -3992,7 +3992,7 @@
         <v>0</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>4348</v>
+        <v>5104</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.007921241632427467</v>
@@ -4001,7 +4001,7 @@
         <v>0</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.036642230073725</v>
+        <v>0.04301581266298921</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>8</v>
@@ -4010,19 +4010,19 @@
         <v>8514</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>3826</v>
+        <v>3789</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>15602</v>
+        <v>15766</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.0282630503053189</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.01270009453678377</v>
+        <v>0.01257870599077791</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.05179552631963724</v>
+        <v>0.052338911699228</v>
       </c>
     </row>
     <row r="10">
@@ -4055,7 +4055,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>4703</v>
+        <v>4670</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.007831461323177505</v>
@@ -4064,7 +4064,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03963355354148351</v>
+        <v>0.03936254012634792</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1</v>
@@ -4076,7 +4076,7 @@
         <v>0</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>5329</v>
+        <v>4650</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.003084687266374405</v>
@@ -4085,7 +4085,7 @@
         <v>0</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01769000852170941</v>
+        <v>0.01543789093761964</v>
       </c>
     </row>
     <row r="11">
@@ -4102,19 +4102,19 @@
         <v>3184</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>8865</v>
+        <v>9107</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.01744128272037863</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.005057075248021303</v>
+        <v>0.005078504309304241</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04855134014582806</v>
+        <v>0.04988034080373138</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>2</v>
@@ -4126,7 +4126,7 @@
         <v>0</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>6781</v>
+        <v>7349</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.01635219961497884</v>
@@ -4135,7 +4135,7 @@
         <v>0</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05714963115722609</v>
+        <v>0.0619402560167845</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>5</v>
@@ -4144,19 +4144,19 @@
         <v>5125</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1959</v>
+        <v>1932</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>10854</v>
+        <v>10965</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.01701231031681102</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.006503285317900277</v>
+        <v>0.006413109576149548</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.03603145861196261</v>
+        <v>0.03639890563926123</v>
       </c>
     </row>
     <row r="12">
@@ -4173,19 +4173,19 @@
         <v>171823</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>163295</v>
+        <v>163161</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>176915</v>
+        <v>177370</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.9410765591260235</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8943686303193162</v>
+        <v>0.8936388714260236</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.968966252645455</v>
+        <v>0.9714568281244053</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>120</v>
@@ -4194,19 +4194,19 @@
         <v>114841</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>110115</v>
+        <v>109139</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>117710</v>
+        <v>117705</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.9678950974294162</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.9280666468589339</v>
+        <v>0.9198419671102438</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.992078922807192</v>
+        <v>0.9920371847126283</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>284</v>
@@ -4215,19 +4215,19 @@
         <v>286664</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>277541</v>
+        <v>277801</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>292744</v>
+        <v>292751</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.9516399521114957</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.9213539409147796</v>
+        <v>0.9222165150344643</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.9718227483642901</v>
+        <v>0.9718450630993928</v>
       </c>
     </row>
     <row r="13">
@@ -4319,19 +4319,19 @@
         <v>4661</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1027</v>
+        <v>1016</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>12317</v>
+        <v>11440</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.0252079415912858</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.005552237045127365</v>
+        <v>0.005494609233915518</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.06660955404411457</v>
+        <v>0.06186937708734613</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>7</v>
@@ -4340,19 +4340,19 @@
         <v>6582</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>2746</v>
+        <v>2854</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>12104</v>
+        <v>12704</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.07589256017567622</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.03165661683101053</v>
+        <v>0.03291060946440757</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1395571502060184</v>
+        <v>0.1464841799841819</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>11</v>
@@ -4361,19 +4361,19 @@
         <v>11243</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>5807</v>
+        <v>6285</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>20024</v>
+        <v>20845</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.04139053130352442</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02137906777398894</v>
+        <v>0.02313693876933324</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.07371371312947972</v>
+        <v>0.07673910326073649</v>
       </c>
     </row>
     <row r="15">
@@ -4440,7 +4440,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>7161</v>
+        <v>7361</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01263054231267246</v>
@@ -4449,7 +4449,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03872765368961009</v>
+        <v>0.03980680965312772</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -4461,7 +4461,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>4577</v>
+        <v>4776</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01039535171352346</v>
@@ -4470,7 +4470,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.05277811349164213</v>
+        <v>0.05507281269047756</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>3</v>
@@ -4479,19 +4479,19 @@
         <v>3237</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>907</v>
+        <v>898</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>9148</v>
+        <v>9597</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01191689045132017</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003340462871523957</v>
+        <v>0.003306431995249356</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.0336764314256205</v>
+        <v>0.03532914182924431</v>
       </c>
     </row>
     <row r="17">
@@ -4508,19 +4508,19 @@
         <v>177914</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>169869</v>
+        <v>169753</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>182173</v>
+        <v>182479</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.9621615160960417</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9186540107235458</v>
+        <v>0.9180270675123908</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9851945776076257</v>
+        <v>0.9868486784595756</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>81</v>
@@ -4529,19 +4529,19 @@
         <v>79245</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>73336</v>
+        <v>72573</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>83240</v>
+        <v>83077</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9137120881108003</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.8455753251520182</v>
+        <v>0.8367820810209635</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9597742223784833</v>
+        <v>0.9578945031373821</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>248</v>
@@ -4550,19 +4550,19 @@
         <v>257160</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>248581</v>
+        <v>247610</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>263866</v>
+        <v>263038</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9466925782451554</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.915110970937179</v>
+        <v>0.911535896494713</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9713799112521676</v>
+        <v>0.9683316396442369</v>
       </c>
     </row>
     <row r="18">
@@ -4657,7 +4657,7 @@
         <v>0</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>7086</v>
+        <v>6222</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01383791990996596</v>
@@ -4666,7 +4666,7 @@
         <v>0</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.04893038092058746</v>
+        <v>0.04296722024837397</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>2</v>
@@ -4678,7 +4678,7 @@
         <v>0</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>6975</v>
+        <v>6099</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.0293798417351362</v>
@@ -4687,7 +4687,7 @@
         <v>0</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1033278838961172</v>
+        <v>0.0903636068298906</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>4</v>
@@ -4696,19 +4696,19 @@
         <v>3987</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>1004</v>
+        <v>983</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>9894</v>
+        <v>9085</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01877902691388132</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.004728655713982864</v>
+        <v>0.004631165759623083</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.04659904925211938</v>
+        <v>0.04278908555009325</v>
       </c>
     </row>
     <row r="20">
@@ -4775,7 +4775,7 @@
         <v>0</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>4887</v>
+        <v>5091</v>
       </c>
       <c r="G21" s="6" t="n">
         <v>0.006936063289137243</v>
@@ -4784,7 +4784,7 @@
         <v>0</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.03374462757645074</v>
+        <v>0.03515570166429906</v>
       </c>
       <c r="J21" s="5" t="n">
         <v>0</v>
@@ -4809,7 +4809,7 @@
         <v>0</v>
       </c>
       <c r="T21" s="5" t="n">
-        <v>7223</v>
+        <v>5369</v>
       </c>
       <c r="U21" s="6" t="n">
         <v>0.004730941471959345</v>
@@ -4818,7 +4818,7 @@
         <v>0</v>
       </c>
       <c r="W21" s="6" t="n">
-        <v>0.03402110605591072</v>
+        <v>0.02528936032280837</v>
       </c>
     </row>
     <row r="22">
@@ -4835,19 +4835,19 @@
         <v>141806</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>135677</v>
+        <v>136832</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>143830</v>
+        <v>143835</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.9792260168008968</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.9369064380404122</v>
+        <v>0.9448806548679043</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.9932031226218924</v>
+        <v>0.9932362410837441</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>59</v>
@@ -4856,7 +4856,7 @@
         <v>65516</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>60524</v>
+        <v>61400</v>
       </c>
       <c r="M22" s="5" t="n">
         <v>67499</v>
@@ -4865,7 +4865,7 @@
         <v>0.9706201582648638</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.8966721161038829</v>
+        <v>0.9096363931701094</v>
       </c>
       <c r="P22" s="6" t="n">
         <v>1</v>
@@ -4877,19 +4877,19 @@
         <v>207322</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>200184</v>
+        <v>202180</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>210360</v>
+        <v>210369</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.9764900316141594</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.9428731968011391</v>
+        <v>0.9522736930940349</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.9907998132319685</v>
+        <v>0.9908429563876024</v>
       </c>
     </row>
     <row r="23">
@@ -4984,7 +4984,7 @@
         <v>0</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>5955</v>
+        <v>6250</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.01463953008146783</v>
@@ -4993,7 +4993,7 @@
         <v>0</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.07866826373993889</v>
+        <v>0.08256528137976475</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>2</v>
@@ -5005,7 +5005,7 @@
         <v>0</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>8089</v>
+        <v>7078</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.0905227103008045</v>
@@ -5014,7 +5014,7 @@
         <v>0</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3276453460519812</v>
+        <v>0.2866891077931786</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3</v>
@@ -5026,16 +5026,16 @@
         <v>1064</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>8617</v>
+        <v>9445</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.03330247581594754</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.01060356502561044</v>
+        <v>0.01059889474109894</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.08584496013227733</v>
+        <v>0.09409216879222897</v>
       </c>
     </row>
     <row r="25">
@@ -5146,7 +5146,7 @@
         <v>74585</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>69738</v>
+        <v>69443</v>
       </c>
       <c r="F27" s="5" t="n">
         <v>75693</v>
@@ -5155,7 +5155,7 @@
         <v>0.9853604699185322</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.9213317362600602</v>
+        <v>0.9174347186202343</v>
       </c>
       <c r="I27" s="6" t="n">
         <v>1</v>
@@ -5167,7 +5167,7 @@
         <v>22453</v>
       </c>
       <c r="L27" s="5" t="n">
-        <v>16599</v>
+        <v>17610</v>
       </c>
       <c r="M27" s="5" t="n">
         <v>24688</v>
@@ -5176,7 +5176,7 @@
         <v>0.9094772896991955</v>
       </c>
       <c r="O27" s="6" t="n">
-        <v>0.6723546539480189</v>
+        <v>0.7133108922068211</v>
       </c>
       <c r="P27" s="6" t="n">
         <v>1</v>
@@ -5188,7 +5188,7 @@
         <v>97037</v>
       </c>
       <c r="S27" s="5" t="n">
-        <v>91763</v>
+        <v>90935</v>
       </c>
       <c r="T27" s="5" t="n">
         <v>99316</v>
@@ -5197,10 +5197,10 @@
         <v>0.9666975241840524</v>
       </c>
       <c r="V27" s="6" t="n">
-        <v>0.9141550398677238</v>
+        <v>0.9059078312077726</v>
       </c>
       <c r="W27" s="6" t="n">
-        <v>0.9893964349743896</v>
+        <v>0.989401105258901</v>
       </c>
     </row>
     <row r="28">
@@ -5295,7 +5295,7 @@
         <v>0</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>4456</v>
+        <v>4304</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05003785484813819</v>
@@ -5304,7 +5304,7 @@
         <v>0</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.214804081576618</v>
+        <v>0.2074926303012037</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>0</v>
@@ -5325,7 +5325,7 @@
         <v>0</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>4456</v>
+        <v>4304</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.05003785484813819</v>
@@ -5334,7 +5334,7 @@
         <v>0</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.214804081576618</v>
+        <v>0.2074926303012037</v>
       </c>
     </row>
     <row r="30">
@@ -5354,7 +5354,7 @@
         <v>0</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>4922</v>
+        <v>4652</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.04630197087918451</v>
@@ -5363,7 +5363,7 @@
         <v>0</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2372674884599283</v>
+        <v>0.2242455514691941</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>0</v>
@@ -5384,7 +5384,7 @@
         <v>0</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>4922</v>
+        <v>4652</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.04630197087918451</v>
@@ -5393,7 +5393,7 @@
         <v>0</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2372674884599283</v>
+        <v>0.2242455514691941</v>
       </c>
     </row>
     <row r="31">
@@ -5453,7 +5453,7 @@
         <v>18746</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>14950</v>
+        <v>14574</v>
       </c>
       <c r="F32" s="5" t="n">
         <v>20744</v>
@@ -5462,7 +5462,7 @@
         <v>0.9036601742726773</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.7207070761333411</v>
+        <v>0.7025869031920401</v>
       </c>
       <c r="I32" s="6" t="n">
         <v>1</v>
@@ -5483,7 +5483,7 @@
         <v>18746</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>14950</v>
+        <v>14574</v>
       </c>
       <c r="T32" s="5" t="n">
         <v>20744</v>
@@ -5492,7 +5492,7 @@
         <v>0.9036601742726773</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.7207070761333411</v>
+        <v>0.7025869031920401</v>
       </c>
       <c r="W32" s="6" t="n">
         <v>1</v>
@@ -5578,7 +5578,7 @@
         <v>0</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>4045</v>
+        <v>3362</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.1579682385446371</v>
@@ -5587,7 +5587,7 @@
         <v>0</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.7922279639650559</v>
+        <v>0.658509503474926</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>0</v>
@@ -5612,7 +5612,7 @@
         <v>0</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>4437</v>
+        <v>3932</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.05735349219142032</v>
@@ -5621,7 +5621,7 @@
         <v>0</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.3154875387822282</v>
+        <v>0.2795855154736214</v>
       </c>
     </row>
     <row r="35">
@@ -5732,7 +5732,7 @@
         <v>4299</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>1061</v>
+        <v>1744</v>
       </c>
       <c r="F37" s="5" t="n">
         <v>5106</v>
@@ -5741,7 +5741,7 @@
         <v>0.842031761455363</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2077720360349364</v>
+        <v>0.3414904965250742</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>1</v>
@@ -5766,7 +5766,7 @@
         <v>13256</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>9626</v>
+        <v>10131</v>
       </c>
       <c r="T37" s="5" t="n">
         <v>14063</v>
@@ -5775,7 +5775,7 @@
         <v>0.9426465078085797</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.6845124612177722</v>
+        <v>0.7204144845263778</v>
       </c>
       <c r="W37" s="6" t="n">
         <v>1</v>
@@ -5870,19 +5870,19 @@
         <v>19127</v>
       </c>
       <c r="E39" s="5" t="n">
-        <v>11510</v>
+        <v>11802</v>
       </c>
       <c r="F39" s="5" t="n">
-        <v>29922</v>
+        <v>29759</v>
       </c>
       <c r="G39" s="6" t="n">
         <v>0.02523765764538289</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.01518707452054831</v>
+        <v>0.01557176624463644</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.03948061213483218</v>
+        <v>0.03926539363273831</v>
       </c>
       <c r="J39" s="5" t="n">
         <v>15</v>
@@ -5891,19 +5891,19 @@
         <v>15136</v>
       </c>
       <c r="L39" s="5" t="n">
-        <v>8645</v>
+        <v>7896</v>
       </c>
       <c r="M39" s="5" t="n">
-        <v>23338</v>
+        <v>23249</v>
       </c>
       <c r="N39" s="6" t="n">
         <v>0.03817476126463098</v>
       </c>
       <c r="O39" s="6" t="n">
-        <v>0.02180532415677143</v>
+        <v>0.01991435517335667</v>
       </c>
       <c r="P39" s="6" t="n">
-        <v>0.05886190997776118</v>
+        <v>0.05863704809755268</v>
       </c>
       <c r="Q39" s="5" t="n">
         <v>33</v>
@@ -5912,19 +5912,19 @@
         <v>34263</v>
       </c>
       <c r="S39" s="5" t="n">
-        <v>24165</v>
+        <v>23937</v>
       </c>
       <c r="T39" s="5" t="n">
-        <v>46887</v>
+        <v>48177</v>
       </c>
       <c r="U39" s="6" t="n">
         <v>0.02968104549182696</v>
       </c>
       <c r="V39" s="6" t="n">
-        <v>0.02093302400013279</v>
+        <v>0.02073624631060764</v>
       </c>
       <c r="W39" s="6" t="n">
-        <v>0.04061663910178873</v>
+        <v>0.0417343448439667</v>
       </c>
     </row>
     <row r="40">
@@ -5941,19 +5941,19 @@
         <v>3082</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>10195</v>
+        <v>8325</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.004066987703741184</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.001267538696980981</v>
+        <v>0.001267060867800753</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01345129296161529</v>
+        <v>0.01098380907229866</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>1</v>
@@ -5965,7 +5965,7 @@
         <v>0</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>4660</v>
+        <v>4666</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.002343627688716554</v>
@@ -5974,7 +5974,7 @@
         <v>0</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01175381633391922</v>
+        <v>0.01176780524162382</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>4</v>
@@ -5983,19 +5983,19 @@
         <v>4012</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>1013</v>
+        <v>996</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>10295</v>
+        <v>9750</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.003475081109253138</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.0008773140432211948</v>
+        <v>0.0008631251200823913</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.008917913523132133</v>
+        <v>0.008446220264430876</v>
       </c>
     </row>
     <row r="41">
@@ -6012,19 +6012,19 @@
         <v>10708</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>5215</v>
+        <v>5941</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>18773</v>
+        <v>19836</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.01412837536745308</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.006880654465889987</v>
+        <v>0.007838231903445956</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.02477025851757857</v>
+        <v>0.0261732695994813</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>6</v>
@@ -6033,19 +6033,19 @@
         <v>5790</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>2768</v>
+        <v>2769</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>11750</v>
+        <v>12731</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.01460228829059688</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.006980320840842502</v>
+        <v>0.00698388461145139</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.02963674859917787</v>
+        <v>0.03210960625003393</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>16</v>
@@ -6054,19 +6054,19 @@
         <v>16497</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>9875</v>
+        <v>9749</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>25965</v>
+        <v>25849</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.01429114587505239</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.008554304157805254</v>
+        <v>0.008445059253619996</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.02249239885038332</v>
+        <v>0.02239252099714745</v>
       </c>
     </row>
     <row r="42">
@@ -6083,19 +6083,19 @@
         <v>724974</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>712312</v>
+        <v>713158</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>735154</v>
+        <v>735314</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.9565669792834228</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.9398608484702783</v>
+        <v>0.9409775822176837</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.9699998558473335</v>
+        <v>0.9702107761475169</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>369</v>
@@ -6104,19 +6104,19 @@
         <v>374628</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>365008</v>
+        <v>365170</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>382248</v>
+        <v>383107</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.9448793227560556</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.9206173365991963</v>
+        <v>0.9210253227985549</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.9640997589818088</v>
+        <v>0.9662665213908218</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1040</v>
@@ -6125,19 +6125,19 @@
         <v>1099601</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1084922</v>
+        <v>1083816</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1112922</v>
+        <v>1111357</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.9525527275238675</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.9398366335285938</v>
+        <v>0.9388786499486981</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.9640919640670513</v>
+        <v>0.9627363764714983</v>
       </c>
     </row>
     <row r="43">
